--- a/biology/Zoologie/Aracynthus_sanguineus/Aracynthus_sanguineus.xlsx
+++ b/biology/Zoologie/Aracynthus_sanguineus/Aracynthus_sanguineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aracynthus sanguineus est une espèce d'insectes hémiptères de la famille des Fulgoridae, sous-famille des Aphaeninae, tribu des Diloburini (Metkalf, 1938) et du genre Aracynthus.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ce rencontre dans le nord de l'Amérique du Sud, notamment au Pérou, en Bolivie, dans le nord-est du Brésil, en Guyane Française, au Suriname et au Venezuela[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ce rencontre dans le nord de l'Amérique du Sud, notamment au Pérou, en Bolivie, dans le nord-est du Brésil, en Guyane Française, au Suriname et au Venezuela. 
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Aracynthus sanguineus a été décrite par l'entomologiste Guillaume-Antoine Olivier en 1791[2] sous le nom Fulgora sanguineus et sert de référence pour le genre Aracynthus.
-Synonymie
-Fulgora sanguineus Olivier, 1791 (protonyme)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aracynthus sanguineus a été décrite par l'entomologiste Guillaume-Antoine Olivier en 1791 sous le nom Fulgora sanguineus et sert de référence pour le genre Aracynthus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aracynthus_sanguineus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aracynthus_sanguineus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fulgora sanguineus Olivier, 1791 (protonyme)
 Poeocera porphyrea Erichson, 1848
 Abrahameria typica Distant, 1920</t>
         </is>
